--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -1005,21 +1005,6 @@
     <t>NIP. 19600429 198903 1 001</t>
   </si>
   <si>
-    <t>: ${bup}</t>
-  </si>
-  <si>
-    <t>: ${izin_bup}</t>
-  </si>
-  <si>
-    <t>: ${izin_pelimpahan}</t>
-  </si>
-  <si>
-    <t>: ${pengawas_pemanduan}</t>
-  </si>
-  <si>
-    <t>: ${penetapan_perairan_pandu}</t>
-  </si>
-  <si>
     <t>${table:personil.id}</t>
   </si>
   <si>
@@ -1105,6 +1090,21 @@
   </si>
   <si>
     <t>${table:pandu.keterangan}</t>
+  </si>
+  <si>
+    <t>: ${ep.bup}</t>
+  </si>
+  <si>
+    <t>: ${ep.izin_bup}</t>
+  </si>
+  <si>
+    <t>: ${ep.penetapan_perairan_pandu}</t>
+  </si>
+  <si>
+    <t>: ${ep.izin_pelimpahan}</t>
+  </si>
+  <si>
+    <t>: ${ep.pengawas_pemanduan}</t>
   </si>
 </sst>
 </file>
@@ -1356,6 +1356,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,11 +1380,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1638,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1646,8 +1646,8 @@
         <v>4</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="28" t="s">
-        <v>118</v>
+      <c r="C9" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1684,25 +1684,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="19" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1715,29 +1715,29 @@
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>123</v>
+      <c r="A17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1768,14 +1768,14 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2805,25 +2805,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2836,40 +2836,40 @@
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>123</v>
+      <c r="A4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3988,29 +3988,29 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="I4" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>131</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -4031,16 +4031,16 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5057,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5146,28 +5146,28 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -5188,15 +5188,15 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6362,28 +6362,28 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -6404,15 +6404,15 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7548,7 +7548,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7559,7 +7559,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -7592,7 +7592,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+      <c r="A10" s="29">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -7636,7 +7636,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
@@ -7658,7 +7658,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+      <c r="A13" s="29">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -7669,7 +7669,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7691,7 +7691,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
+      <c r="A16" s="29">
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7702,7 +7702,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
@@ -7713,7 +7713,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
@@ -7724,7 +7724,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
+      <c r="A19" s="29">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7735,7 +7735,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="5" t="s">
         <v>56</v>
       </c>
@@ -7746,7 +7746,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7757,7 +7757,7 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26">
+      <c r="A22" s="29">
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -7768,7 +7768,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
@@ -10825,7 +10825,7 @@
       <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -10838,7 +10838,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>89</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -10862,7 +10862,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>89</v>
       </c>
@@ -10873,7 +10873,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -10886,7 +10886,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
@@ -10897,7 +10897,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -10912,7 +10912,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>96</v>
       </c>
@@ -10923,7 +10923,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -10938,7 +10938,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5" t="s">
         <v>100</v>
       </c>
@@ -10947,7 +10947,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>101</v>
       </c>

--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PRASARANA" sheetId="6" r:id="rId6"/>
     <sheet name="ADM" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjPb6qr6ulOlC1sGF/gpkSza3O7zQ=="/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
   <si>
     <t>CHECK-LIST EVALUASI PELIMPAHAN PELAKSANAAN PEMANDUAN DAN PENUNDAAN KAPAL</t>
   </si>
@@ -911,9 +911,6 @@
     <t>Laporan Bulanan (Setiap 1 Bulan)</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Bulan, Tahun</t>
   </si>
   <si>
@@ -926,25 +923,13 @@
     <t>Nomor, Tanggal Penetapan</t>
   </si>
   <si>
-    <t>PP.308/1/1/KSOP.Bkl-13 Tgl 19 Juli 2013</t>
-  </si>
-  <si>
     <t>Tarif Jasa Pemanduan dan Penundaan Kapal</t>
   </si>
   <si>
-    <t>UM.339/8/7/1/C.Bkl-14 Tgl 8 Juli 2014</t>
-  </si>
-  <si>
     <t>SK Direksi Dasar Penetapan Tarif Jasa Pemanduan</t>
   </si>
   <si>
-    <t>KU.301/6/8/1/DITSUM-14 Tgl 6 Agustus 2014</t>
-  </si>
-  <si>
     <t>Data Dukung Lainnya....</t>
-  </si>
-  <si>
-    <t>PP.303/I/I/KSOP.BKL-17 Tgl 3 November 2017</t>
   </si>
   <si>
     <t>Surat Ditjen Hubla Persetujuan Sarpras Pemanduan...</t>
@@ -1105,6 +1090,51 @@
   </si>
   <si>
     <t>: ${ep.pengawas_pemanduan}</t>
+  </si>
+  <si>
+    <t>${ep.cek1}</t>
+  </si>
+  <si>
+    <t>${ep.cek2}</t>
+  </si>
+  <si>
+    <t>${ep.cek3}</t>
+  </si>
+  <si>
+    <t>${ep.cek4}</t>
+  </si>
+  <si>
+    <t>${ep.cek5}</t>
+  </si>
+  <si>
+    <t>${ep.uncek1}</t>
+  </si>
+  <si>
+    <t>${ep.uncek2}</t>
+  </si>
+  <si>
+    <t>${ep.uncek3}</t>
+  </si>
+  <si>
+    <t>${ep.uncek4}</t>
+  </si>
+  <si>
+    <t>${ep.uncek5}</t>
+  </si>
+  <si>
+    <t>${ep.laporan_bulanan}</t>
+  </si>
+  <si>
+    <t>${ep.bukti_pembayaran_pnpb}</t>
+  </si>
+  <si>
+    <t>${ep.sispro}</t>
+  </si>
+  <si>
+    <t>${ep.tarif_jasa_pandu_tunda}</t>
+  </si>
+  <si>
+    <t>${ep.data_dukung}</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1380,6 +1410,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
@@ -1630,7 +1664,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1638,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1647,7 +1681,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1656,7 +1690,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1665,7 +1699,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1719,25 +1753,25 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2840,25 +2874,25 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3989,28 +4023,28 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -5146,28 +5180,28 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -6362,28 +6396,28 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -10740,21 +10774,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.4140625" customWidth="1"/>
     <col min="2" max="2" width="44.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.9140625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="26" width="7.6640625" customWidth="1"/>
+    <col min="6" max="25" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -10784,9 +10820,8 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -10822,146 +10857,153 @@
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -10969,18 +11011,18 @@
     <row r="17" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10997,10 +11039,10 @@
     </row>
     <row r="23" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11008,12 +11050,12 @@
     </row>
     <row r="25" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11030,17 +11072,17 @@
     </row>
     <row r="31" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E32" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E33" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12019,6 +12061,6 @@
     <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -1391,6 +1391,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,10 +1414,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1718,25 +1718,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
@@ -1802,14 +1802,14 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2839,25 +2839,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="22" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -2896,14 +2896,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4065,16 +4065,16 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5222,15 +5222,15 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6438,15 +6438,15 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -7523,7 +7523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7582,7 +7584,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7593,7 +7595,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
@@ -7604,7 +7606,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
@@ -7615,7 +7617,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -7626,7 +7628,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
@@ -7637,7 +7639,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
@@ -7648,7 +7650,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
@@ -7659,7 +7661,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -7670,7 +7672,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
@@ -7681,7 +7683,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
@@ -7692,7 +7694,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29">
+      <c r="A13" s="31">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -7703,7 +7705,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
@@ -7714,7 +7716,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7725,7 +7727,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29">
+      <c r="A16" s="31">
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7736,7 +7738,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
@@ -7747,7 +7749,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
@@ -7758,7 +7760,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29">
+      <c r="A19" s="31">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7769,7 +7771,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="5" t="s">
         <v>56</v>
       </c>
@@ -7780,7 +7782,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7791,7 +7793,7 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29">
+      <c r="A22" s="31">
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -7802,7 +7804,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
@@ -7813,7 +7815,7 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
@@ -10776,7 +10778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10859,24 +10861,24 @@
       <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
@@ -10885,24 +10887,24 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29">
+      <c r="A5" s="31">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
@@ -10911,24 +10913,24 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
@@ -10937,24 +10939,24 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29">
+      <c r="A9" s="31">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
@@ -10963,24 +10965,24 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
+      <c r="A11" s="31">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5" t="s">
         <v>95</v>
       </c>
@@ -10989,7 +10991,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
         <v>96</v>
       </c>

--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
   <si>
     <t>CHECK-LIST EVALUASI PELIMPAHAN PELAKSANAAN PEMANDUAN DAN PENUNDAAN KAPAL</t>
   </si>
@@ -1135,6 +1135,18 @@
   </si>
   <si>
     <t>${ep.data_dukung}</t>
+  </si>
+  <si>
+    <t>${table:radio.nama}</t>
+  </si>
+  <si>
+    <t>${table:radio.no_sertifikat}</t>
+  </si>
+  <si>
+    <t>${table:radio.keterangan}</t>
+  </si>
+  <si>
+    <t>${table:radio.tanggal_selesai}</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1414,6 +1426,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2819,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2877,22 +2890,22 @@
         <v>109</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>112</v>
+        <v>159</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="169">
   <si>
     <t>CHECK-LIST EVALUASI PELIMPAHAN PELAKSANAAN PEMANDUAN DAN PENUNDAAN KAPAL</t>
   </si>
@@ -1255,7 +1255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1367,11 +1367,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1432,6 +1445,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,11 +1473,26 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,25 +1798,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="26" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1792,10 +1829,10 @@
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1827,14 +1864,14 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2864,25 +2901,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2895,10 +2932,10 @@
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2921,14 +2958,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2946,7 +2983,7 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3951,14 +3988,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" customWidth="1"/>
-    <col min="3" max="9" width="15.69921875" customWidth="1"/>
+    <col min="3" max="8" width="15.69921875" customWidth="1"/>
+    <col min="9" max="9" width="20.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="26" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4093,16 +4131,16 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5120,15 +5158,22 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" customWidth="1"/>
-    <col min="3" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="26" width="7.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.69921875" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" customWidth="1"/>
+    <col min="12" max="26" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5144,7 +5189,6 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -5161,7 +5205,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -5183,12 +5227,14 @@
       <c r="G2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -5227,14 +5273,13 @@
       <c r="G3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="41" t="s">
         <v>135</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -5252,19 +5297,19 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="11"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -5304,7 +5349,6 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -6326,7 +6370,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape"/>
@@ -6337,16 +6381,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" customWidth="1"/>
-    <col min="3" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="26" width="7.69921875" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="9" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6401,10 +6447,12 @@
       <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -6445,10 +6493,10 @@
       <c r="G3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="44" t="s">
         <v>127</v>
       </c>
       <c r="J3" s="11"/>
@@ -6470,17 +6518,17 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="11"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -7544,7 +7592,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape"/>
@@ -7616,7 +7664,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7627,7 +7675,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
@@ -7638,7 +7686,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
@@ -7649,7 +7697,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -7660,7 +7708,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
@@ -7671,7 +7719,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
@@ -7682,7 +7730,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
@@ -7693,7 +7741,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -7704,7 +7752,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
@@ -7715,7 +7763,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
@@ -7726,7 +7774,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="36">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -7737,7 +7785,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
@@ -7748,7 +7796,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7759,7 +7807,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="36">
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7770,7 +7818,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
@@ -7781,7 +7829,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
@@ -7792,7 +7840,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="36">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7803,7 +7851,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="5" t="s">
         <v>56</v>
       </c>
@@ -7814,7 +7862,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7825,7 +7873,7 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="36">
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -7836,7 +7884,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
@@ -7847,7 +7895,7 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
@@ -10810,7 +10858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10893,7 +10941,7 @@
       <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -10910,7 +10958,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
@@ -10919,7 +10967,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="36">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -10936,7 +10984,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
@@ -10945,7 +10993,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="36">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -10962,7 +11010,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
@@ -10971,7 +11019,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="36">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -10988,7 +11036,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
@@ -10997,7 +11045,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="36">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -11014,7 +11062,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="5" t="s">
         <v>95</v>
       </c>
@@ -11023,7 +11071,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5" t="s">
         <v>96</v>
       </c>

--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -1454,6 +1454,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1469,31 +1484,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,25 +1798,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="29" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1864,14 +1864,14 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2901,25 +2901,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="29" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
@@ -2958,14 +2958,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3987,15 +3987,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" customWidth="1"/>
-    <col min="3" max="8" width="15.69921875" customWidth="1"/>
+    <col min="3" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
     <col min="9" max="9" width="20.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="26" width="7.69921875" customWidth="1"/>
   </cols>
@@ -4131,16 +4133,16 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5230,7 +5232,7 @@
       <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="9"/>
@@ -5276,7 +5278,7 @@
       <c r="H3" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="31" t="s">
         <v>135</v>
       </c>
       <c r="J3" s="11"/>
@@ -5297,19 +5299,19 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="38"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -6450,7 +6452,7 @@
       <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="9"/>
@@ -6493,10 +6495,10 @@
       <c r="G3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="33" t="s">
         <v>127</v>
       </c>
       <c r="J3" s="11"/>
@@ -6518,17 +6520,17 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="41"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -7664,7 +7666,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7675,7 +7677,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
@@ -7686,7 +7688,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
@@ -7697,7 +7699,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="A6" s="43">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -7708,7 +7710,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
@@ -7719,7 +7721,7 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
@@ -7730,7 +7732,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
@@ -7741,7 +7743,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="43">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -7752,7 +7754,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
@@ -7763,7 +7765,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
@@ -7774,7 +7776,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="43">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -7785,7 +7787,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
@@ -7796,7 +7798,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
@@ -7807,7 +7809,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="43">
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -7818,7 +7820,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
@@ -7829,7 +7831,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
@@ -7840,7 +7842,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="43">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7851,7 +7853,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="5" t="s">
         <v>56</v>
       </c>
@@ -7862,7 +7864,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7873,7 +7875,7 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+      <c r="A22" s="43">
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -7884,7 +7886,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
@@ -7895,7 +7897,7 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
@@ -10858,7 +10860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10941,7 +10943,7 @@
       <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -10958,7 +10960,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
@@ -10967,7 +10969,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -10984,7 +10986,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
@@ -10993,7 +10995,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="43">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -11010,7 +11012,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
@@ -11019,7 +11021,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="A9" s="43">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -11036,7 +11038,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
@@ -11045,7 +11047,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="43">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -11062,7 +11064,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="5" t="s">
         <v>95</v>
       </c>
@@ -11071,7 +11073,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="5" t="s">
         <v>96</v>
       </c>

--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="159">
   <si>
     <t>CHECK-LIST EVALUASI PELIMPAHAN PELAKSANAAN PEMANDUAN DAN PENUNDAAN KAPAL</t>
   </si>
@@ -699,54 +699,6 @@
     <t>Jumlah</t>
   </si>
   <si>
-    <t>1 UNIT</t>
-  </si>
-  <si>
-    <t>Lokasi (Titik Koordinat Geografis)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> 54.5 S / 102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> 18.28 E</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -766,21 +718,6 @@
     </r>
   </si>
   <si>
-    <t>2 UNIT</t>
-  </si>
-  <si>
-    <t>Type/Serial No</t>
-  </si>
-  <si>
-    <t>IC-M 412 &amp; IC-M 304</t>
-  </si>
-  <si>
-    <t>Ijin Radio (Nomor dan Expiry)</t>
-  </si>
-  <si>
-    <t>No.NV 101/171/10/DV-2015</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -800,12 +737,6 @@
     </r>
   </si>
   <si>
-    <t>3 UNIT</t>
-  </si>
-  <si>
-    <t>IC-M 24</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -825,25 +756,10 @@
     </r>
   </si>
   <si>
-    <t>4 UNIT</t>
-  </si>
-  <si>
-    <t>SIGMA</t>
-  </si>
-  <si>
     <t>Kendaraan Operasional</t>
   </si>
   <si>
-    <t>Jenis</t>
-  </si>
-  <si>
-    <t>AVANZA</t>
-  </si>
-  <si>
     <t>Rumah Operasional</t>
-  </si>
-  <si>
-    <t>TYPE 45</t>
   </si>
   <si>
     <r>
@@ -865,12 +781,6 @@
     </r>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIS MARINE </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1168,6 +1078,27 @@
   </si>
   <si>
     <t>${table:radio.tanggal_keluar_sertifikats}</t>
+  </si>
+  <si>
+    <t>${table:stasiun.unit}</t>
+  </si>
+  <si>
+    <t>${table:vhf.unit}</t>
+  </si>
+  <si>
+    <t>${table:ht.unit}</t>
+  </si>
+  <si>
+    <t>${table:jacket.unit}</t>
+  </si>
+  <si>
+    <t>${table:kendaraan.unit}</t>
+  </si>
+  <si>
+    <t>${table:ais.unit}</t>
+  </si>
+  <si>
+    <t>${table:rumah.unit}</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1675,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1752,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1761,7 +1692,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="19" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1770,7 +1701,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1779,7 +1710,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1833,25 +1764,25 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2936,25 +2867,25 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3987,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4088,31 +4019,31 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -5255,31 +5186,31 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="J3" s="11"/>
       <c r="L3" s="11"/>
@@ -6384,7 +6315,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6475,31 +6406,31 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -7603,10 +7534,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7681,106 +7612,106 @@
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
+      <c r="C4" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="43">
+        <v>2</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
-        <v>2</v>
-      </c>
+      <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43">
+        <v>3</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>154</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="43">
+        <v>4</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
-        <v>3</v>
-      </c>
+      <c r="A10" s="44"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>155</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -7791,135 +7722,71 @@
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>70</v>
+      <c r="C14" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="43">
+        <v>7</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
-        <v>5</v>
-      </c>
+      <c r="A16" s="44"/>
       <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10817,39 +10684,15 @@
     <row r="992" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E992" s="6"/>
     </row>
-    <row r="993" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E993" s="6"/>
-    </row>
-    <row r="994" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E994" s="6"/>
-    </row>
-    <row r="995" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E995" s="6"/>
-    </row>
-    <row r="996" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E996" s="6"/>
-    </row>
-    <row r="997" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E997" s="6"/>
-    </row>
-    <row r="998" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E998" s="6"/>
-    </row>
-    <row r="999" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E999" s="6"/>
-    </row>
-    <row r="1000" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1000" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -10876,10 +10719,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10910,16 +10753,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -10947,22 +10790,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="5"/>
@@ -10973,22 +10816,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="5"/>
@@ -10999,22 +10842,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="5"/>
@@ -11025,22 +10868,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="5"/>
@@ -11051,22 +10894,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -11075,7 +10918,7 @@
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -11084,7 +10927,7 @@
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11095,18 +10938,18 @@
     <row r="17" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11123,10 +10966,10 @@
     </row>
     <row r="23" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11134,12 +10977,12 @@
     </row>
     <row r="25" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="17" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="17" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11156,17 +10999,17 @@
     </row>
     <row r="31" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="18" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="17" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="17" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
+++ b/report/Report-Inspection-Evaluasi Pelimpahan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="SDM PANDU" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="160">
   <si>
     <t>CHECK-LIST EVALUASI PELIMPAHAN PELAKSANAAN PEMANDUAN DAN PENUNDAAN KAPAL</t>
   </si>
@@ -903,9 +903,6 @@
     <t>${table:personil.nama}</t>
   </si>
   <si>
-    <t>${table:personil.no_sertifikat}</t>
-  </si>
-  <si>
     <t>${table:personil.keterangan}</t>
   </si>
   <si>
@@ -1099,6 +1096,12 @@
   </si>
   <si>
     <t>${table:rumah.unit}</t>
+  </si>
+  <si>
+    <t>${table:personil.coc}</t>
+  </si>
+  <si>
+    <t>${table:personil.coe}</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G998"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1678,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1692,7 +1695,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,7 +1704,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,7 +1713,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1764,25 +1767,25 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2867,25 +2870,25 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4019,31 +4022,31 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -5186,31 +5189,31 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>118</v>
       </c>
       <c r="J3" s="11"/>
       <c r="L3" s="11"/>
@@ -6406,31 +6409,31 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>110</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -7536,7 +7539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -7613,7 +7616,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -7635,7 +7638,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -7657,7 +7660,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -7679,7 +7682,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -7701,7 +7704,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -7723,7 +7726,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -7745,7 +7748,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -10793,13 +10796,13 @@
         <v>70</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10819,13 +10822,13 @@
         <v>72</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10845,13 +10848,13 @@
         <v>73</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10871,13 +10874,13 @@
         <v>75</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10897,13 +10900,13 @@
         <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
